--- a/Feature metadata.xlsx
+++ b/Feature metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/351104fc9fcac9e6/Documenten/Master GIMA/Internship/WNF/Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5187C015-7CD7-4B6E-9E07-07108D33607B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="456" documentId="8_{5187C015-7CD7-4B6E-9E07-07108D33607B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{495F46B2-2194-42F9-B53A-0EE33C28CE9F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E7C1C81D-2D40-42F0-86E3-1C9B989E7EF8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="428">
   <si>
     <t>Feature</t>
   </si>
@@ -419,9 +419,6 @@
     <t>Rubber plantation distance to</t>
   </si>
   <si>
-    <t>Colonies Mennonites distance to</t>
-  </si>
-  <si>
     <t>Global mining smoothed</t>
   </si>
   <si>
@@ -530,9 +527,6 @@
     <t>Resolution</t>
   </si>
   <si>
-    <t>The nominal scale and/or spatial resolution of the resource.</t>
-  </si>
-  <si>
     <t>400x400m</t>
   </si>
   <si>
@@ -698,9 +692,6 @@
     <t>Janyari 1st, 2012 - present</t>
   </si>
   <si>
-    <t>2000 - 2020</t>
-  </si>
-  <si>
     <t>2013 - present.</t>
   </si>
   <si>
@@ -846,22 +837,6 @@
   </si>
   <si>
     <t>The data was reprojected to 400x400m by using a nearest neighbor resampling.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For non-croplands pixels the distance to the closest cropland is calculated. The data was reprojected to 400x400 by using a nearest neighbor resampling. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Resampling should be aggregating</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve"> The areal/weighted data was used to calculate the distance to the closest cattle for non-values, with a threshold of 2000. The data was resampled using nearest neighbor resampling to 400x400m.</t>
@@ -895,9 +870,6 @@
     <t>persistenthotspot</t>
   </si>
   <si>
-    <t>Attribute field data type</t>
-  </si>
-  <si>
     <t>Source data collection/processing</t>
   </si>
   <si>
@@ -907,39 +879,21 @@
     <t>The dataset integrates deforestation alerts from GLAD Alerts, GLAD-S2 Alerts, and RADD Alerts, processed by resampling to a 10-meter resolution. The original pixel size is 10x10 meters. High confidence alerts were detected twice by one system and confirmed by multiple systems.</t>
   </si>
   <si>
-    <t>FIRMS distributes near real-time active fire data from the VIIRS instrument. Developed by the University of Maryland with NASA and UN FAO. The VIIRS 375m thermal anomalies/active fire product uses five 375m channels rom VIIRS to detect fires and thermal anomalies, with additional 750m channels complementing the data.</t>
-  </si>
-  <si>
     <t>The dataset provides global forest height mapping for woody vegetation ≥ 3m using Landsat-based models calibrated with GEDI observations for the years 2000, 2019, and 2020. The model estimated forest height for 2000 and 2020, with extensive filtering to reduce errors and noise.</t>
   </si>
   <si>
     <t>Provides daily updates on forest disturbance events in the tropics. Forest cover is defined as trees ≥ 5m tall with canopy closure exceeding 30%. Uses Landsat ETM+ and OLI data with potential 8-day repeat coverage globally.  Employs conservative change detection to minimize errors, generating alerts for canopy loss &gt;50%.</t>
   </si>
   <si>
-    <t>VNP46A3 is the NASA VIIRS Day-Night band (DNB) calibrated radiance product. It measures night lights and reflected solar/lunar lights with a spectral wavelength range from 0.5 µm to 0.9 µm. Derived from the JPSS-1/NOAA20 platform, it uses VIIRS DNB with heritage from the OLS sensors and is calibrated to handle stray light, lunar illuminance, twilight, clouds, and noisy scan edges.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dataset is made by an integrated methodology combining a hydrological model and satellite-derived soil moisture estimations. Derived from the combination of GLWD-1 and GLWD-2 polygons with additional information on maximum extents and types of wetlands, created by WWF, CESR, and University of Kassel. </t>
-  </si>
-  <si>
     <t>Dataset includes the distribution of population for residential population estimates between 1975 and 2020 in 5-year intervals, and projections to 2025 and 2030. Combines GHS-BUILT data from Landsat imagery with population estimates from census and administrative polygons, producing estimations and projections of population.</t>
   </si>
   <si>
     <t xml:space="preserve">The SRTM 90m Digital Elevation Database v4.1 provides global digital elevation models (DEMs). Original SRTM data collected by NASA/USGS, processed by researchers to fill data voids and create seamless DEMs. Processed to fill data voids using vector contours, points, and various interpolation methods. </t>
   </si>
   <si>
-    <t xml:space="preserve">The dataset shows the distribution of lakes, reservoirs, rivers, and different wetland types. Derived from the combination of GLWD-1 and GLWD-2 polygons with additional information on maximum extents and types of wetlands, created by WWF, CESR, and University of Kassel. </t>
-  </si>
-  <si>
-    <t>GADM provides maps and spatial data for all countries and their sub-divisions. Derived using a digital soil mapping approach based on Quantile Random Forest, utilizing global soil profile data and environmental layers. The current version is 4.1 and delimits 400,276 administrative areas, with predictions resampled from 250m to 5000m cells</t>
-  </si>
-  <si>
     <t>The dataset depicts the cation exchange capacity (buffered at pH 7) of fine earth fraction in mmol(c)/kg at 6 standard depths. Utilizes Quantile Random Forest models to predict soil properties based on a global compilation of soil profile data and environmental layers.</t>
   </si>
   <si>
-    <t>The dataset includes terrestrial and marine protected areas, which is montly updated by various sources.</t>
-  </si>
-  <si>
     <t>The dataset provides global maps representing the potential for conversion into agricultural land, using ANN models based on various predictor variables. Developed from ESA CCI land cover data, using Artificial Neural Network models that relate locations of recent past conversions to predictors like topography, climate, soil, and accessibility.</t>
   </si>
   <si>
@@ -952,18 +906,9 @@
     <t>The Universal Mill List provides a  catalog of palm oil mill locations globally. Data collection involves harmonization and verification by a consortium of partners, using high-resolution satellite imagery to confirm mill infrastructure.</t>
   </si>
   <si>
-    <t>The datasets contains the the annual expansion of soybean cultivation across South America from 2000 to 2019. Data was derived from a combination of satellite images from Landsat and MODIS, complemented by field observations over three years. The  method involved creating  classifications of soybean cultivation based on satellite data processed, validated by field data.</t>
-  </si>
-  <si>
     <t>The dataset provides area-information for 173 crops for the year 2020. Developed by harmonizing input data from 28 datasets, involving calculations of harvested and crop areas. Sources used include official statistics, published gridded datasets, and remote sensing products, integrated through a multi-criteria ranking scheme.</t>
   </si>
   <si>
-    <t>The dataset presents Mennonite colonies across Latin America. Sources used include academic literature, community publications, and digital archives (Mennonitische Post), enriched with high-resolution satellite imagery. The mapping integrates historical and recent data, validated through cross-referencing with historical records and satellite images.</t>
-  </si>
-  <si>
-    <t>The dataset provides global mining land use, capturing detailed features like pits, waste rock dumps, water ponds, tailings dams, totaling over approximately 66,000 km². Produced using remote sensing analysis combined with Artificial Neural Network (ANN) models to identify and classify mining features, trained and validated using existing geological and mining data.</t>
-  </si>
-  <si>
     <t xml:space="preserve">This datasets provides land suitability maps for development sectors. These Development Potential Indices integrate resource potential and development feasibility. Developed using multi-criteria decision analysis (MCDA) including specific constraints, criteria for development suitability and combining with AHP and WLC techniques. </t>
   </si>
   <si>
@@ -976,9 +921,6 @@
     <t>fwi</t>
   </si>
   <si>
-    <t>The dataset consists of spatial statistics combined with big data analytical tools to identify statistically significant spatiotemporal trends of forest loss across the globe. The forest loss data is derived from GLAD, using high-resolution satellite imagery from the Landsat program. The dataset was further processed and analyzed using ArcGIS tools, specifically the Emerging Hot Spot Analysis tool.</t>
-  </si>
-  <si>
     <t>Creater Source</t>
   </si>
   <si>
@@ -988,12 +930,6 @@
     <t>Data access permissions</t>
   </si>
   <si>
-    <t>Size dataset</t>
-  </si>
-  <si>
-    <t>run code</t>
-  </si>
-  <si>
     <t>0,56 GB</t>
   </si>
   <si>
@@ -1138,311 +1074,272 @@
     <t>2021-2029</t>
   </si>
   <si>
-    <t>2021
-if usable, make the others aswell</t>
-  </si>
-  <si>
     <t>Resampled down to 0.04</t>
   </si>
   <si>
     <t>55000x55000m</t>
   </si>
   <si>
-    <t xml:space="preserve">CC by 4.0 
-https://creativecommons.org/licenses/by/4.0/ </t>
-  </si>
-  <si>
-    <t>CC BY-SA 2.0</t>
-  </si>
-  <si>
-    <t>We acknowledge the use of data and imagery from LANCE FIRMS operated by the NASA/GSFC/Earth Science Data and Information System (ESDIS) with funding provided by NASA/HQ.
-https://www.earthdata.nasa.gov/learn/find-data/near-real-time/citation#ed-lance-disclaimer</t>
-  </si>
-  <si>
-    <t>The GLAD Tools available are with no charges and no restrictions on subsequent redistribution or use, if the proper citation is provided as specified by the Creative Commons Attribution License (CC BY).
-https://glad.umd.edu/ard/home#license</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Creative Commons Attribution 4.0 International license
-https://creativecommons.org/licenses/by/4.0/</t>
-  </si>
-  <si>
-    <t>CC by 4.0
-https://commission.europa.eu/legal-notice_en</t>
-  </si>
-  <si>
-    <t>https://cds.climate.copernicus.eu/api/v2/terms/static/cmip6-wps.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC by 4.0 
-https://creativecommons.org/licenses/by/4.0/
+    <t>closenesstopalmoil</t>
+  </si>
+  <si>
+    <t>closeness to palm oil</t>
+  </si>
+  <si>
+    <t>Palm Oil plantation distance to</t>
+  </si>
+  <si>
+    <t>Public domain</t>
+  </si>
+  <si>
+    <t>Forest Weather Index</t>
+  </si>
+  <si>
+    <t>Driest quarter aridity</t>
+  </si>
+  <si>
+    <t>Annual aridity</t>
+  </si>
+  <si>
+    <t>Colonies mennonites distance to</t>
+  </si>
+  <si>
+    <t>The dataset provides information on aridity, which is the potential evaporation divided by the mean precipitation. The climate projections are derived from CMIP5 climate projections.</t>
+  </si>
+  <si>
+    <t>The dataset provides information on the Fire Weather Index (FWI), which is a fire danger rating system. The FWI combines different weather factors such as temperature, precipitation, wind direction and different moisture levels to evaluate the drought conditions and the changes on forest fires.</t>
+  </si>
+  <si>
+    <t>https://portal.nccs.nasa.gov/datashare/GlobalFWI/v2.0/fwiCalcs.GEOS-5/Default/GEOS-5/</t>
+  </si>
+  <si>
+    <t>https://cds.climate.copernicus.eu/cdsapp#!/dataset/sis-biodiversity-cmip5-global?tab=form</t>
+  </si>
+  <si>
+    <t>Copernicus Climate Change Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum digital number value for the dataset.
 </t>
   </si>
   <si>
-    <t>free download (for non-commercial scientific, conservation and educational purposes)
-https://www.worldwildlife.org/publications/global-lakes-and-wetlands-database-lakes-and-wetlands-grid-level-3</t>
-  </si>
-  <si>
-    <t>CC BY-NC (Attribution-NonCommercial)
-https://gadm.org/license.html</t>
-  </si>
-  <si>
-    <t>Attribution 4.0 International (CC BY 4.0), https://creativecommons.org/licenses/by/4.0/</t>
-  </si>
-  <si>
-    <t>https://www.protectedplanet.net/en/legal</t>
-  </si>
-  <si>
-    <t>Creative Commons Attribution 4.0 International
-https://creativecommons.org/licenses/by/4.0/legalcode</t>
-  </si>
-  <si>
-    <t>CC0 1.0
-https://creativecommons.org/publicdomain/zero/1.0/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC BY 4.0
-https://creativecommons.org/licenses/by/4.0/ </t>
-  </si>
-  <si>
-    <t>Creative Commons Attribution 4.0 International License
-https://creativecommons.org/licenses/by/4.0/</t>
-  </si>
-  <si>
-    <t>CC BY 4.0
-https://creativecommons.org/licenses/by/4.0/</t>
-  </si>
-  <si>
-    <t>closenesstopalmoil</t>
-  </si>
-  <si>
-    <t>closeness to palm oil</t>
-  </si>
-  <si>
-    <t>Palm Oil plantation distance to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC-BY 4.0 
-https://creativecommons.org/licenses/by/4.0/ </t>
-  </si>
-  <si>
-    <t>https://cds.climate.copernicus.eu/api/v2/terms/static/licence-to-use-copernicus-products.pdf</t>
-  </si>
-  <si>
-    <t>Public domain</t>
-  </si>
-  <si>
-    <t>Creative Commons Attribution 4.0 International
-https://creativecommons.org/licenses/by/4.0/deed.en</t>
-  </si>
-  <si>
-    <t>Maximum digital number value for the dataset.
-runfile('C:/Users/admin/Documents/Newdatasets/AgreedAggriculture/untitled6.py', wdir='C:/Users/admin/Documents/Newdatasets/AgreedAggriculture')
-Keyword: elevation
-  Total size: 1188216320 bytes (1.11 GB)
-  Max value: nan
-Keyword: firealerts
-  Total size: 2051101817 bytes (1.91 GB)
-  Max value: 606.0
-Keyword: forestheight
-  Total size: 514483367 bytes (0.48 GB)
-  Max value: 44.41015625
-Keyword: historicloss
-  Total size: 182834144 bytes (0.17 GB)
-  Max value: 256.0
-Keyword: initialforestcover
-  Total size: 489452916 bytes (0.46 GB)
-  Max value: 10000
-Keyword: lastsixmonths
-  Total size: 2442831890 bytes (2.28 GB)
-  Max value: nan
-Keyword: lastthreemonths
-  Total size: 2263799933 bytes (2.11 GB)
-  Max value: nan
-Keyword: lastmonth
-  Total size: 1516228934 bytes (1.41 GB)
-  Max value: 65535
-Keyword: losslastyear
-  Total size: 283087475 bytes (0.26 GB)
-  Max value: 256.0
-Keyword: month
-  Total size: 9223273983 bytes (8.59 GB)
-  Max value: 65535
-Keyword: nightlights
-  Total size: 4573694516 bytes (4.26 GB)
-  Max value: nan
-Keyword: patchdensity
-  Total size: 1696820635 bytes (1.58 GB)
-  Max value: 153
-Keyword: totaldeforestation
-  Total size: 0 bytes (0.00 GB)
-  Max value: None
-Keyword: peatland
-  Total size: 117006148 bytes (0.11 GB)
-  Max value: 14.999999046325684
-Keyword: populationcurrent
-  Total size: 1182241808 bytes (1.10 GB)
-  Max value: nan
-Keyword: populationincrease
-  Total size: 1190487561 bytes (1.11 GB)
-  Max value: nan
-Keyword: precipitation
-  Total size: 2921007402 bytes (2.72 GB)
-  Max value: 65535
-Keyword: temperature
-  Total size: 4069321932 bytes (3.79 GB)
-  Max value: 65535
-Keyword: previoussameseason
-  Total size: 2066083643 bytes (1.92 GB)
-  Max value: 1600
-Keyword: sinmonth
-  Total size: 0 bytes (0.00 GB)
-  Max value: None
-Keyword: slope
-  Total size: 994700157 bytes (0.93 GB)
-  Max value: nan
-Keyword: smoothedsixmonths
-  Total size: 3000413226 bytes (2.79 GB)
-  Max value: 1528.0
-Keyword: smoothedtotal
-  Total size: 18960937259 bytes (17.66 GB)
-  Max value: 1578.0
-Keyword: timesinceloss
-  Total size: 1929341475 bytes (1.80 GB)
-  Max value: 65535
-Keyword: totallossalerts
-  Total size: 3215548729 bytes (2.99 GB)
-  Max value: nan
-Keyword: wetlands
-  Total size: 92169456 bytes (0.09 GB)
-  Max value: nan
-Keyword: x
-  Total size: 5775564292 bytes (5.38 GB)
-  Max value: 1600
-Keyword: y
-  Total size: 9526889251 bytes (8.87 GB)
-  Max value: 24610.0
-Keyword: monthssince2019
-  Total size: 0 bytes (0.00 GB)
-  Max value: None
-Keyword: landpercentage
-  Total size: 5617973 bytes (0.01 GB)
-  Max value: 254
-Keyword: catexcap
-  Total size: 332319176 bytes (0.31 GB)
-  Max value: 947
-Keyword: wdpa
-  Total size: 6172933 bytes (0.01 GB)
-  Max value: 1
-Keyword: croplandcapacity100p
-  Total size: 323854128 bytes (0.30 GB)
-  Max value: 255
-Keyword: croplandcapacitybelow50p
-  Total size: 255858810 bytes (0.24 GB)
-  Max value: 255
-Keyword: croplandcapacityover50p
-  Total size: 246430966 bytes (0.23 GB)
-  Max value: 255
-Keyword: closenesstocropland
-  Total size: 295320688 bytes (0.28 GB)
-  Max value: 255.0
-Keyword: cattlesmoothed
-  Total size: 502230576 bytes (0.47 GB)
-  Max value: 24349.150390625
-Keyword: closenesstocattleabove2000
-  Total size: 218176786 bytes (0.20 GB)
-  Max value: 255.0
-Keyword: closenesstocattleabove10000
-  Total size: 228197095 bytes (0.21 GB)
-  Max value: 255.0
-Keyword: palmoilmills
-  Total size: 58991323 bytes (0.05 GB)
-  Max value: 1.0
-Keyword: soybeansmoothed
-  Total size: 173158759 bytes (0.16 GB)
-  Max value: 100.0
-Keyword: closenesstosoybean
-  Total size: 304021058 bytes (0.28 GB)
-  Max value: 255.0
-Keyword: closenesstococoa
-  Total size: 182902776 bytes (0.17 GB)
-  Max value: 255.0
-Keyword: closenesstocoffee
-  Total size: 224729695 bytes (0.21 GB)
-  Max value: 255.0
-Keyword: closenesstofiber
-  Total size: 97513918 bytes (0.09 GB)
-  Max value: 255.0
-Keyword: closenesstorice
-  Total size: 238138635 bytes (0.22 GB)
-  Max value: 255.0
-Keyword: closenesstorubber
-  Total size: 159490776 bytes (0.15 GB)
-  Max value: 255.0
-Keyword: closenesstomennonites
-  Total size: 99026773 bytes (0.09 GB)
-  Max value: 255.0
-Keyword: ariditydriestquarter
-  Total size: 1840030767 bytes (1.71 GB)
-  Max value: 1.0
-Keyword: aridityannual
-  Total size: 2003221625 bytes (1.87 GB)
-  Max value: 1.0
-Keyword: fwi
-  Total size: 5082199405 bytes (4.73 GB)
-  Max value: 138.33616638183594
-Keyword: miningsmoothed
-  Total size: 58308643 bytes (0.05 GB)
-  Max value: 19929.791015625
-Keyword: closenesstomining
-  Total size: 284546244 bytes (0.27 GB)
-  Max value: 255.0
-Keyword: dpicoal
-  Total size: 48869600 bytes (0.05 GB)
-  Max value: 36.0
-Keyword: dpiconvgas
-  Total size: 69430157 bytes (0.06 GB)
-  Max value: 36.0
-Keyword: dpiconvoil
-  Total size: 68592544 bytes (0.06 GB)
-  Max value: 36.0
-Keyword: dpihydro
-  Total size: 44924308 bytes (0.04 GB)
-  Max value: 36.0
-Keyword: dpimetalicmining
-  Total size: 0 bytes (0.00 GB)
-  Max value: None
-Keyword: dpinonmetalicmining
-  Total size: 0 bytes (0.00 GB)
-  Max value: None
-Keyword: closenesstoforestedge
-  Total size: 4273191234 bytes (3.98 GB)
-  Max value: 24834.0
-Keyword: forestedgedensity
-  Total size: 1297162917 bytes (1.21 GB)
-  Max value: 459
-Keyword: diminishinghotspot
-  Total size: 42112307 bytes (0.04 GB)
-  Max value: 1.0
-Keyword: sporadichotspot
-  Total size: 46168446 bytes (0.04 GB)
-  Max value: 1.0
-Keyword: intensifyinghotspot
-  Total size: 42663059 bytes (0.04 GB)
-  Max value: 1.0
-Keyword: newhotspot
-  Total size: 42311790 bytes (0.04 GB)
-  Max value: 1.0
-Keyword: persistenthotspot
-  Total size: 0 bytes (0.00 GB)
-  Max value: None</t>
+    <t xml:space="preserve">OpenStreetMap </t>
+  </si>
+  <si>
+    <t>University of Maryland / NASA / UN FAO</t>
+  </si>
+  <si>
+    <t>GLAD / University of Maryland</t>
+  </si>
+  <si>
+    <t>WWF / CESR / University of Kassel</t>
+  </si>
+  <si>
+    <t>WWF / CESR University of Kassel</t>
+  </si>
+  <si>
+    <t>The dataset shows the distribution of lakes, reservoirs, rivers, and different wetland types. Derived from the combination of GLWD-1 and GLWD-2 polygons with additional information on maximum extents and types of wetlands.</t>
+  </si>
+  <si>
+    <t>Dataset is made by an integrated methodology combining a hydrological model and satellite-derived soil moisture estimations. Derived from the combination of GLWD-1 and GLWD-2 polygons with additional information on maximum extents and types of wetlands.</t>
+  </si>
+  <si>
+    <t>UN Environment Programme World Conservation Monitoring Centre (UNEP-WCMC)</t>
+  </si>
+  <si>
+    <t>World Resources Institute, Rainforest Alliance, Proforest, Daemeter, Trase, Earthworm, Auriga, CIFOR, Transitions, Jason Benedict, Robert Heilmayr, Kim Carlson</t>
+  </si>
+  <si>
+    <t>CC by 4.0 
+(https://creativecommons.org/licenses/by/4.0/)</t>
+  </si>
+  <si>
+    <t>CC BY-SA 2.0
+(https://creativecommons.org/licenses/by-sa/2.0/)</t>
+  </si>
+  <si>
+    <t>NASA LANCE FIRMS 
+(https://www.earthdata.nasa.gov/learn/find-data/near-real-time/citation#ed-lance-disclaimer)</t>
+  </si>
+  <si>
+    <t>GLAD Tools 
+(https://glad.umd.edu/ard/home#license)</t>
+  </si>
+  <si>
+    <t>European Commission Legal Notice 
+(https://commission.europa.eu/legal-notice_en)</t>
+  </si>
+  <si>
+    <t>Copernicus Products License 
+(https://cds.climate.copernicus.eu/api/v2/terms/static/licence-to-use-copernicus-products.pdf)</t>
+  </si>
+  <si>
+    <t>WWF Global Lakes and Wetlands Database 
+(https://www.worldwildlife.org/publications/global-lakes-and-wetlands-database-lakes-and-wetlands-grid-level-3)</t>
+  </si>
+  <si>
+    <t>GADM License 
+(https://gadm.org/license.html)</t>
+  </si>
+  <si>
+    <t>Protected Planet Legal 
+(https://www.protectedplanet.net/en/legal)</t>
+  </si>
+  <si>
+    <t>CC0 1.0 
+(https://creativecommons.org/publicdomain/zero/1.0/)</t>
+  </si>
+  <si>
+    <t>NASA / USGS</t>
+  </si>
+  <si>
+    <t>UMD / GLAD / WUR</t>
+  </si>
+  <si>
+    <t>NASA / NOAA Suomi NPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schiavina M., Freire S., Carioli A., MacManus K. </t>
+  </si>
+  <si>
+    <t>Schiavina M., Freire S., Carioli A., MacManus K.</t>
+  </si>
+  <si>
+    <t>Čengić, M., Steinmann, Z. J., Defourny, P., Doelman, J. C., Lamarche, C., Stehfest, E., Schipper, A. M. &amp; Huijbregts, M. A.</t>
+  </si>
+  <si>
+    <t>Tubiello, F. N., Conchedda, G., Casse, L., Pengyu, H., Zhongxin, C., De Santis, G., Fritz, S. &amp; Muchoney, D.</t>
+  </si>
+  <si>
+    <t>Gilbert, M., Nicolas, G., Cinardi, G., Van Boeckel, T. P., Vanwambeke, S. O., Wint, G. R., &amp; Robinson, T. P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gilbert, M., Nicolas, G., Cinardi, G., Van Boeckel, T. P., Vanwambeke, S. O., Wint, G. R., &amp; Robinson, T. P. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Song, X. P., Hansen, M. C., Potapov, P., Adusei, B., Pickering, J., Adami, M., Lima, A., Zalles, V., Stehman, S., Di Bella, C., Conde, M., Copati, E., Fernandes, L., Hernandex-Serna, A., Jantz, S., Pickens, A., Turubanova, S. &amp; Tyukavina, A. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tang, F. H., Nguyen, T. H., Conchedda, G., Casse, L., Tubiello, F. N., &amp; Maggi, F. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">le Polain de Waroux, Y., Neumann, J., O’Driscoll, A., &amp; Schreiber, K. </t>
+  </si>
+  <si>
+    <t>NASA / GFWED</t>
+  </si>
+  <si>
+    <t>Tang, L., &amp; Werner, T. T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oakleaf, J. R., Kennedy, C. M., Baruch-Mordo, S., Gerber, J. S., West, P. C., Johnson, J. A., &amp; Kiesecker, J. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harris, N. L., Goldman, E., Gabris, C., Nordling, J., Minnemeyer, S., Ansari, S., Lippmann, M., Bennett, L., Raad, M., Hansen, M., &amp; Potapov, P. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014 - present
+</t>
+  </si>
+  <si>
+    <t>Kant, S.</t>
+  </si>
+  <si>
+    <t>Van Duijvenbode, J.</t>
+  </si>
+  <si>
+    <t>NASA VIIRS Day-Night band (DNB) measures night lights and reflected solar/lunar lights with a spectral wavelength range from 0.5 µm to 0.9 µm. Derived from the JPSS-1/NOAA20 platform, it uses VIIRS DNB with heritage from the OLS sensors and is calibrated to handle stray light, lunar illuminance, twilight, clouds, and noisy scan edges.</t>
+  </si>
+  <si>
+    <t>FIRMS distributes near real-time active fire data from the VIIRS instrument. The VIIRS 375m thermal anomalies/active fire product uses five 375m channels rom VIIRS to detect fires and thermal anomalies, with additional 750m channels complementing the data.</t>
+  </si>
+  <si>
+    <t>The dataset integrates deforestation alerts from GLAD Alerts, GLAD-S2 Alerts, and RADD Alerts, processed by resampling to a 10-meter resolution. High confidence alerts were detected  by multiple systems, low confidence is detected by a single system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datasets includes montly global climate projections computed in the framework of CMIP6. It averages the precipipation projections of 12 models. </t>
+  </si>
+  <si>
+    <t>GADM provides spatial data is derived using a digital soil mapping approach based on Quantile Random Forest, utilizing global soil profile data and environmental layers. The current version is 4.1 and delimits 400,276 administrative areas, with predictions resampled from 250m to 5000m cells</t>
+  </si>
+  <si>
+    <t>The dataset includes terrestrial and marine protected areas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The datasets contains the the annual expansion of soybean cultivation across South America from 2000 to 2019. Data was derived from a combination of satellite images from Landsat and MODIS, complemented by field observations over three years. </t>
+  </si>
+  <si>
+    <t>The dataset presents mennonite colonies across Latin America. Sources used include academic literature enriched with high-resolution satellite imagery. The mapping integrates historical and recent data, validated through cross-referencing with historical records and satellite images.</t>
+  </si>
+  <si>
+    <t>The dataset provides global mining land use, capturing detailed features totaling over approximately 66,000 km². Produced using remote sensing analysis combined with Artificial Neural Network (ANN) models to identify and classify mining features, trained and validated using existing geological and mining data.</t>
+  </si>
+  <si>
+    <t>The dataset includes statistically significant spatiotemporal trends of forest loss. The forest loss data is derived from GLAD, using high-resolution satellite imagery from the Landsat program. It is further analyzed using the ArcGIS tool ´Emerging Hot Spot Analysis´.</t>
+  </si>
+  <si>
+    <t>The spatial resolution of the resource.</t>
+  </si>
+  <si>
+    <t>Creater of the feature.</t>
+  </si>
+  <si>
+    <t>0 Gb</t>
+  </si>
+  <si>
+    <t>1,36 GB</t>
+  </si>
+  <si>
+    <t>1,37 G</t>
+  </si>
+  <si>
+    <t>1,47 GB</t>
+  </si>
+  <si>
+    <t>1,38 GB</t>
+  </si>
+  <si>
+    <t>Storage size  of the feature.</t>
+  </si>
+  <si>
+    <t>Size feature</t>
+  </si>
+  <si>
+    <t>0 GB</t>
+  </si>
+  <si>
+    <t>unint8</t>
+  </si>
+  <si>
+    <t>float32</t>
+  </si>
+  <si>
+    <t>uint16</t>
+  </si>
+  <si>
+    <t>uint8</t>
+  </si>
+  <si>
+    <t>unint16</t>
+  </si>
+  <si>
+    <t>Feature field data type</t>
+  </si>
+  <si>
+    <t>The data type of the features.</t>
+  </si>
+  <si>
+    <t>Licensce on using the dataset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For non-croplands pixels the distance to the closest cropland is calculated. The data was reprojected to 400x400 by using a nearest neighbor resampling. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1468,13 +1365,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1485,15 +1375,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1504,12 +1387,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor theme="9" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1526,7 +1403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1564,7 +1441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1575,7 +1452,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1587,30 +1464,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1618,6 +1496,21 @@
   </cellStyles>
   <dxfs count="79">
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1777,21 +1670,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1920,62 +1798,62 @@
     <tableColumn id="19" xr3:uid="{6814EB9F-4A0B-4767-A229-F29BF768989C}" name="losslastyear" dataDxfId="58"/>
     <tableColumn id="20" xr3:uid="{F845C7B4-6257-4CAF-AD63-3474743294C2}" name="month" dataDxfId="57"/>
     <tableColumn id="21" xr3:uid="{C3763233-2080-4C0B-9BBB-88EA687BEFFA}" name="nightlights" dataDxfId="56"/>
-    <tableColumn id="22" xr3:uid="{3C891D74-0EF2-44AB-940B-2B8EC4DB2D2A}" name="patchdensity" dataDxfId="55"/>
-    <tableColumn id="23" xr3:uid="{083FD90D-2689-46E2-B000-A813E5A2702E}" name="totaldeforestation" dataDxfId="54"/>
-    <tableColumn id="24" xr3:uid="{7B9BDDCA-2B5F-4B4F-ACD7-162558FB7F6B}" name="peatland" dataDxfId="53"/>
-    <tableColumn id="25" xr3:uid="{726A5F3C-297B-4AFB-878B-2331D0956024}" name="populationcurrent" dataDxfId="52"/>
-    <tableColumn id="26" xr3:uid="{E46A8FF0-8430-484B-8E52-3739AEB626EC}" name="populationincrease" dataDxfId="51"/>
-    <tableColumn id="27" xr3:uid="{9D68BD66-4EF9-4605-895B-EE56495A9EB5}" name="precipitation" dataDxfId="50"/>
-    <tableColumn id="28" xr3:uid="{66623EFA-9F14-47DD-A3B7-7CD2E670A576}" name="temperature" dataDxfId="49"/>
-    <tableColumn id="29" xr3:uid="{4BBD316A-CC7E-497F-B555-3422941A29C3}" name="previoussameseason" dataDxfId="48"/>
-    <tableColumn id="30" xr3:uid="{9A43211B-55DE-4FDD-B648-4540A176820A}" name="sinmonth" dataDxfId="47"/>
-    <tableColumn id="31" xr3:uid="{5A4D242A-5CB0-4B86-8F35-38488B93D0CC}" name="slope" dataDxfId="46"/>
-    <tableColumn id="32" xr3:uid="{6D422640-4021-4222-83A3-E3900D16548F}" name="smoothedsixmonths" dataDxfId="45"/>
-    <tableColumn id="33" xr3:uid="{E258FF0A-D711-4E6E-8A9C-491B0C677202}" name="smoothedtotal" dataDxfId="44"/>
-    <tableColumn id="34" xr3:uid="{4921CAED-48A6-42F4-99D6-142DF37494E1}" name="timesinceloss" dataDxfId="43"/>
-    <tableColumn id="35" xr3:uid="{9B4D82CC-B38D-4BFD-ADB4-6EE512FFB8DA}" name="totallossalerts" dataDxfId="42"/>
-    <tableColumn id="36" xr3:uid="{813CF1D5-5834-4583-8860-2B9C33F8DCBE}" name="wetlands" dataDxfId="41"/>
-    <tableColumn id="37" xr3:uid="{B39E92FA-38C0-4631-AA8C-04DC4F29870E}" name="x" dataDxfId="40"/>
-    <tableColumn id="38" xr3:uid="{7590CBCF-49E8-4F4A-8C3C-1D948DECDDE7}" name="y" dataDxfId="39"/>
-    <tableColumn id="39" xr3:uid="{A7444141-E7AB-4310-9CBF-D96074644786}" name="monthssince2019" dataDxfId="38"/>
-    <tableColumn id="40" xr3:uid="{59A1E306-4F59-4272-BAA2-62C752F4FFC3}" name="landpercentage" dataDxfId="37"/>
-    <tableColumn id="41" xr3:uid="{7FB4DB0E-065F-45D2-BA53-692B387EE445}" name="catexcap" dataDxfId="36"/>
-    <tableColumn id="42" xr3:uid="{DA4B43B6-7DCC-4C25-B9FA-60B8140AE340}" name="wdpa" dataDxfId="35"/>
-    <tableColumn id="43" xr3:uid="{56145B0D-9F0A-4B01-8564-CDCCE9A7F8F8}" name="croplandcapacity100p" dataDxfId="34"/>
-    <tableColumn id="44" xr3:uid="{417F698B-568C-4270-9798-3ADA724C88AB}" name="croplandcapacitybelow50p" dataDxfId="33"/>
-    <tableColumn id="45" xr3:uid="{B5A4A100-0100-43F5-96D8-699D54E61741}" name="croplandcapacityover50p" dataDxfId="32"/>
-    <tableColumn id="46" xr3:uid="{6C1E6E3D-0352-44E0-B2CE-14C91BE57FEB}" name="closenesstocropland" dataDxfId="31"/>
-    <tableColumn id="47" xr3:uid="{8B97B713-CCAF-460A-ABD3-6B72DC6425B8}" name="cattlesmoothed" dataDxfId="30"/>
-    <tableColumn id="48" xr3:uid="{01612F15-E87E-4F38-BEA6-69AECB670B38}" name="closenesstocattleabove2000" dataDxfId="29"/>
-    <tableColumn id="72" xr3:uid="{6D318FCD-AF0B-4BC2-8AE6-90A8BAD26558}" name="closenesstocattleabove10000" dataDxfId="28"/>
-    <tableColumn id="49" xr3:uid="{42DB243B-DB24-4A46-A0D5-0018C8A98942}" name="palmoilmills" dataDxfId="27"/>
-    <tableColumn id="50" xr3:uid="{54DB2172-D062-4666-8069-267F166185F8}" name="soybeansmoothed" dataDxfId="26"/>
-    <tableColumn id="51" xr3:uid="{54653078-80C9-499F-A300-685F8F502BB0}" name="closenesstosoybean" dataDxfId="25"/>
-    <tableColumn id="52" xr3:uid="{5EC76D17-6537-442A-8E57-28AB3901FC26}" name="closenesstococoa" dataDxfId="24"/>
-    <tableColumn id="53" xr3:uid="{A0116903-75C3-4503-B561-6A30E5C165C6}" name="closenesstocoffee" dataDxfId="23"/>
-    <tableColumn id="54" xr3:uid="{C9BF9707-EC67-455D-BB8C-A6A59791C165}" name="closenesstofiber" dataDxfId="22"/>
-    <tableColumn id="77" xr3:uid="{3B5937B4-856E-4ABE-BD7B-C9DF026DDEF0}" name="closenesstopalmoil" dataDxfId="21"/>
-    <tableColumn id="55" xr3:uid="{62EA4265-DEBC-45C4-8AB3-A7361D637FDC}" name="closenesstorice" dataDxfId="20"/>
-    <tableColumn id="56" xr3:uid="{3DE18EDF-0A6A-4F37-9EA9-3CFB879A7C36}" name="closenesstorubber" dataDxfId="19"/>
-    <tableColumn id="57" xr3:uid="{EDE0C00C-B6AA-499A-87B9-23D6B4EE4351}" name="closenesstomennonites" dataDxfId="18"/>
-    <tableColumn id="74" xr3:uid="{C51812A8-8512-4C39-8BF0-AB320A0C5F86}" name="ariditydriestquarter" dataDxfId="17"/>
-    <tableColumn id="75" xr3:uid="{65584C93-EC6B-4381-90F0-BAFB43798E99}" name="aridityannual" dataDxfId="16"/>
-    <tableColumn id="76" xr3:uid="{2823911D-5DA7-4918-93C5-739895F29C57}" name="fwi" dataDxfId="15"/>
-    <tableColumn id="73" xr3:uid="{29DD45FD-9B5E-4058-9E88-F20F4DF71A22}" name="miningsmoothed" dataDxfId="14"/>
-    <tableColumn id="58" xr3:uid="{D0BA3DAB-B5C2-45E5-8649-D429F99C24DF}" name="closenesstomining" dataDxfId="13"/>
-    <tableColumn id="59" xr3:uid="{FE508251-DB51-4126-A06E-0B40F7763BAF}" name="dpicoal" dataDxfId="12"/>
-    <tableColumn id="60" xr3:uid="{C38232E7-2AF8-4085-B625-E5CC90CE1310}" name="dpiconvgas" dataDxfId="11"/>
-    <tableColumn id="61" xr3:uid="{B07340FB-D858-4FD4-8FFA-3B8BCE375192}" name="dpiconvoil" dataDxfId="10"/>
-    <tableColumn id="62" xr3:uid="{3CB04A2A-615F-4119-A3B0-29FADBC9CAAB}" name="dpihydro" dataDxfId="9"/>
-    <tableColumn id="63" xr3:uid="{5E2D6C7E-F708-4AD7-A2A0-EB48E08F2995}" name="dpimetalicmining" dataDxfId="8"/>
-    <tableColumn id="64" xr3:uid="{F615A158-E968-4995-8B5B-12AF754895AA}" name="dpinonmetalicmining" dataDxfId="7"/>
-    <tableColumn id="65" xr3:uid="{FE8CB4B5-085A-4487-B9B9-86552E24B08D}" name="closenesstoforestedge" dataDxfId="6"/>
-    <tableColumn id="67" xr3:uid="{B9917047-9DF3-4463-94D5-57A628BD8540}" name="forestedgedensity" dataDxfId="5"/>
-    <tableColumn id="66" xr3:uid="{C5BD0B5C-C105-41B8-9C42-4A94BFAD7DCA}" name="diminishinghotspot" dataDxfId="4"/>
-    <tableColumn id="68" xr3:uid="{598F272B-F665-41B6-B5E6-53FE69A598DB}" name="sporadichotspot" dataDxfId="3"/>
-    <tableColumn id="69" xr3:uid="{D527DE1C-D331-434F-A0F4-EA810BDD6A16}" name="intensifyinghotspot" dataDxfId="2"/>
-    <tableColumn id="70" xr3:uid="{2EA24C0E-B568-4AD0-B36E-83901E2BEA57}" name="newhotspot" dataDxfId="1"/>
-    <tableColumn id="71" xr3:uid="{6696E344-AB0A-4ABD-8C81-38DE60DE5DE6}" name="Persistent Hotspot" dataDxfId="0"/>
+    <tableColumn id="22" xr3:uid="{3C891D74-0EF2-44AB-940B-2B8EC4DB2D2A}" name="patchdensity" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{083FD90D-2689-46E2-B000-A813E5A2702E}" name="totaldeforestation" dataDxfId="0"/>
+    <tableColumn id="24" xr3:uid="{7B9BDDCA-2B5F-4B4F-ACD7-162558FB7F6B}" name="peatland" dataDxfId="1"/>
+    <tableColumn id="25" xr3:uid="{726A5F3C-297B-4AFB-878B-2331D0956024}" name="populationcurrent" dataDxfId="55"/>
+    <tableColumn id="26" xr3:uid="{E46A8FF0-8430-484B-8E52-3739AEB626EC}" name="populationincrease" dataDxfId="54"/>
+    <tableColumn id="27" xr3:uid="{9D68BD66-4EF9-4605-895B-EE56495A9EB5}" name="precipitation" dataDxfId="53"/>
+    <tableColumn id="28" xr3:uid="{66623EFA-9F14-47DD-A3B7-7CD2E670A576}" name="temperature" dataDxfId="52"/>
+    <tableColumn id="29" xr3:uid="{4BBD316A-CC7E-497F-B555-3422941A29C3}" name="previoussameseason" dataDxfId="51"/>
+    <tableColumn id="30" xr3:uid="{9A43211B-55DE-4FDD-B648-4540A176820A}" name="sinmonth" dataDxfId="50"/>
+    <tableColumn id="31" xr3:uid="{5A4D242A-5CB0-4B86-8F35-38488B93D0CC}" name="slope" dataDxfId="49"/>
+    <tableColumn id="32" xr3:uid="{6D422640-4021-4222-83A3-E3900D16548F}" name="smoothedsixmonths" dataDxfId="48"/>
+    <tableColumn id="33" xr3:uid="{E258FF0A-D711-4E6E-8A9C-491B0C677202}" name="smoothedtotal" dataDxfId="47"/>
+    <tableColumn id="34" xr3:uid="{4921CAED-48A6-42F4-99D6-142DF37494E1}" name="timesinceloss" dataDxfId="46"/>
+    <tableColumn id="35" xr3:uid="{9B4D82CC-B38D-4BFD-ADB4-6EE512FFB8DA}" name="totallossalerts" dataDxfId="45"/>
+    <tableColumn id="36" xr3:uid="{813CF1D5-5834-4583-8860-2B9C33F8DCBE}" name="wetlands" dataDxfId="44"/>
+    <tableColumn id="37" xr3:uid="{B39E92FA-38C0-4631-AA8C-04DC4F29870E}" name="x" dataDxfId="43"/>
+    <tableColumn id="38" xr3:uid="{7590CBCF-49E8-4F4A-8C3C-1D948DECDDE7}" name="y" dataDxfId="42"/>
+    <tableColumn id="39" xr3:uid="{A7444141-E7AB-4310-9CBF-D96074644786}" name="monthssince2019" dataDxfId="41"/>
+    <tableColumn id="40" xr3:uid="{59A1E306-4F59-4272-BAA2-62C752F4FFC3}" name="landpercentage" dataDxfId="40"/>
+    <tableColumn id="41" xr3:uid="{7FB4DB0E-065F-45D2-BA53-692B387EE445}" name="catexcap" dataDxfId="39"/>
+    <tableColumn id="42" xr3:uid="{DA4B43B6-7DCC-4C25-B9FA-60B8140AE340}" name="wdpa" dataDxfId="38"/>
+    <tableColumn id="43" xr3:uid="{56145B0D-9F0A-4B01-8564-CDCCE9A7F8F8}" name="croplandcapacity100p" dataDxfId="37"/>
+    <tableColumn id="44" xr3:uid="{417F698B-568C-4270-9798-3ADA724C88AB}" name="croplandcapacitybelow50p" dataDxfId="36"/>
+    <tableColumn id="45" xr3:uid="{B5A4A100-0100-43F5-96D8-699D54E61741}" name="croplandcapacityover50p" dataDxfId="35"/>
+    <tableColumn id="46" xr3:uid="{6C1E6E3D-0352-44E0-B2CE-14C91BE57FEB}" name="closenesstocropland" dataDxfId="34"/>
+    <tableColumn id="47" xr3:uid="{8B97B713-CCAF-460A-ABD3-6B72DC6425B8}" name="cattlesmoothed" dataDxfId="33"/>
+    <tableColumn id="48" xr3:uid="{01612F15-E87E-4F38-BEA6-69AECB670B38}" name="closenesstocattleabove2000" dataDxfId="32"/>
+    <tableColumn id="72" xr3:uid="{6D318FCD-AF0B-4BC2-8AE6-90A8BAD26558}" name="closenesstocattleabove10000" dataDxfId="31"/>
+    <tableColumn id="49" xr3:uid="{42DB243B-DB24-4A46-A0D5-0018C8A98942}" name="palmoilmills" dataDxfId="30"/>
+    <tableColumn id="50" xr3:uid="{54DB2172-D062-4666-8069-267F166185F8}" name="soybeansmoothed" dataDxfId="29"/>
+    <tableColumn id="51" xr3:uid="{54653078-80C9-499F-A300-685F8F502BB0}" name="closenesstosoybean" dataDxfId="28"/>
+    <tableColumn id="52" xr3:uid="{5EC76D17-6537-442A-8E57-28AB3901FC26}" name="closenesstococoa" dataDxfId="27"/>
+    <tableColumn id="53" xr3:uid="{A0116903-75C3-4503-B561-6A30E5C165C6}" name="closenesstocoffee" dataDxfId="26"/>
+    <tableColumn id="54" xr3:uid="{C9BF9707-EC67-455D-BB8C-A6A59791C165}" name="closenesstofiber" dataDxfId="25"/>
+    <tableColumn id="77" xr3:uid="{3B5937B4-856E-4ABE-BD7B-C9DF026DDEF0}" name="closenesstopalmoil" dataDxfId="24"/>
+    <tableColumn id="55" xr3:uid="{62EA4265-DEBC-45C4-8AB3-A7361D637FDC}" name="closenesstorice" dataDxfId="23"/>
+    <tableColumn id="56" xr3:uid="{3DE18EDF-0A6A-4F37-9EA9-3CFB879A7C36}" name="closenesstorubber" dataDxfId="22"/>
+    <tableColumn id="57" xr3:uid="{EDE0C00C-B6AA-499A-87B9-23D6B4EE4351}" name="closenesstomennonites" dataDxfId="21"/>
+    <tableColumn id="74" xr3:uid="{C51812A8-8512-4C39-8BF0-AB320A0C5F86}" name="ariditydriestquarter" dataDxfId="20"/>
+    <tableColumn id="75" xr3:uid="{65584C93-EC6B-4381-90F0-BAFB43798E99}" name="aridityannual" dataDxfId="19"/>
+    <tableColumn id="76" xr3:uid="{2823911D-5DA7-4918-93C5-739895F29C57}" name="fwi" dataDxfId="18"/>
+    <tableColumn id="73" xr3:uid="{29DD45FD-9B5E-4058-9E88-F20F4DF71A22}" name="miningsmoothed" dataDxfId="17"/>
+    <tableColumn id="58" xr3:uid="{D0BA3DAB-B5C2-45E5-8649-D429F99C24DF}" name="closenesstomining" dataDxfId="16"/>
+    <tableColumn id="59" xr3:uid="{FE508251-DB51-4126-A06E-0B40F7763BAF}" name="dpicoal" dataDxfId="15"/>
+    <tableColumn id="60" xr3:uid="{C38232E7-2AF8-4085-B625-E5CC90CE1310}" name="dpiconvgas" dataDxfId="14"/>
+    <tableColumn id="61" xr3:uid="{B07340FB-D858-4FD4-8FFA-3B8BCE375192}" name="dpiconvoil" dataDxfId="13"/>
+    <tableColumn id="62" xr3:uid="{3CB04A2A-615F-4119-A3B0-29FADBC9CAAB}" name="dpihydro" dataDxfId="12"/>
+    <tableColumn id="63" xr3:uid="{5E2D6C7E-F708-4AD7-A2A0-EB48E08F2995}" name="dpimetalicmining" dataDxfId="11"/>
+    <tableColumn id="64" xr3:uid="{F615A158-E968-4995-8B5B-12AF754895AA}" name="dpinonmetalicmining" dataDxfId="10"/>
+    <tableColumn id="65" xr3:uid="{FE8CB4B5-085A-4487-B9B9-86552E24B08D}" name="closenesstoforestedge" dataDxfId="9"/>
+    <tableColumn id="67" xr3:uid="{B9917047-9DF3-4463-94D5-57A628BD8540}" name="forestedgedensity" dataDxfId="8"/>
+    <tableColumn id="66" xr3:uid="{C5BD0B5C-C105-41B8-9C42-4A94BFAD7DCA}" name="diminishinghotspot" dataDxfId="7"/>
+    <tableColumn id="68" xr3:uid="{598F272B-F665-41B6-B5E6-53FE69A598DB}" name="sporadichotspot" dataDxfId="6"/>
+    <tableColumn id="69" xr3:uid="{D527DE1C-D331-434F-A0F4-EA810BDD6A16}" name="intensifyinghotspot" dataDxfId="5"/>
+    <tableColumn id="70" xr3:uid="{2EA24C0E-B568-4AD0-B36E-83901E2BEA57}" name="newhotspot" dataDxfId="4"/>
+    <tableColumn id="71" xr3:uid="{6696E344-AB0A-4ABD-8C81-38DE60DE5DE6}" name="persistenthotspot" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2300,23 +2178,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831E8F27-2460-4DD0-A6DC-DD5999890934}">
   <dimension ref="A1:BY18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AT6" sqref="AT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="76" width="15.6328125" customWidth="1"/>
+    <col min="1" max="22" width="15.6328125" customWidth="1"/>
+    <col min="23" max="23" width="15.6328125" style="16" customWidth="1"/>
+    <col min="24" max="76" width="15.6328125" customWidth="1"/>
+    <col min="77" max="77" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:77" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2376,7 +2257,7 @@
       <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="12" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="3" t="s">
@@ -2476,7 +2357,7 @@
         <v>54</v>
       </c>
       <c r="BD1" s="5" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="BE1" s="5" t="s">
         <v>55</v>
@@ -2488,13 +2369,13 @@
         <v>57</v>
       </c>
       <c r="BH1" s="6" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="BI1" s="6" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="BJ1" s="6" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="BK1" s="3" t="s">
         <v>58</v>
@@ -2539,12 +2420,12 @@
         <v>71</v>
       </c>
       <c r="BY1" s="6" t="s">
-        <v>142</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:77" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
@@ -2609,7 +2490,7 @@
       <c r="V2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="13" t="s">
         <v>22</v>
       </c>
       <c r="X2" s="6" t="s">
@@ -2709,7 +2590,7 @@
         <v>54</v>
       </c>
       <c r="BD2" s="5" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="BE2" s="5" t="s">
         <v>55</v>
@@ -2721,13 +2602,13 @@
         <v>57</v>
       </c>
       <c r="BH2" s="6" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="BI2" s="6" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="BJ2" s="6" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="BK2" s="6" t="s">
         <v>58</v>
@@ -2772,12 +2653,12 @@
         <v>71</v>
       </c>
       <c r="BY2" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:77" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>73</v>
@@ -2842,7 +2723,7 @@
       <c r="V3" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="W3" s="13" t="s">
         <v>93</v>
       </c>
       <c r="X3" s="6" t="s">
@@ -2942,7 +2823,7 @@
         <v>124</v>
       </c>
       <c r="BD3" s="6" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="BE3" s="6" t="s">
         <v>125</v>
@@ -2951,610 +2832,768 @@
         <v>126</v>
       </c>
       <c r="BG3" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="BH3" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="BI3" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="BJ3" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="BK3" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="BH3" s="8"/>
-      <c r="BI3" s="8"/>
-      <c r="BJ3" s="8"/>
-      <c r="BK3" s="6" t="s">
+      <c r="BL3" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="BL3" s="6" t="s">
+      <c r="BM3" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="BM3" s="6" t="s">
+      <c r="BN3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="BN3" s="6" t="s">
+      <c r="BO3" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="BO3" s="6" t="s">
+      <c r="BP3" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="BP3" s="6" t="s">
+      <c r="BQ3" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="BQ3" s="6" t="s">
+      <c r="BR3" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="BR3" s="6" t="s">
+      <c r="BS3" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="BS3" s="6" t="s">
+      <c r="BT3" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="BT3" s="6" t="s">
+      <c r="BU3" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="BU3" s="6" t="s">
+      <c r="BV3" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="BV3" s="6" t="s">
+      <c r="BW3" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="BW3" s="6" t="s">
+      <c r="BX3" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="BX3" s="6" t="s">
+      <c r="BY3" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="BY3" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:77" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="6"/>
-      <c r="AV4" s="6"/>
-      <c r="AW4" s="6"/>
-      <c r="AX4" s="6"/>
-      <c r="AY4" s="6"/>
-      <c r="AZ4" s="6"/>
-      <c r="BA4" s="6"/>
-      <c r="BB4" s="6"/>
-      <c r="BC4" s="6"/>
-      <c r="BD4" s="6"/>
-      <c r="BE4" s="6"/>
-      <c r="BF4" s="6"/>
-      <c r="BG4" s="6"/>
-      <c r="BH4" s="8"/>
-      <c r="BI4" s="8"/>
-      <c r="BJ4" s="8"/>
-      <c r="BK4" s="6"/>
-      <c r="BL4" s="6"/>
-      <c r="BM4" s="6"/>
-      <c r="BN4" s="6"/>
-      <c r="BO4" s="6"/>
-      <c r="BP4" s="6"/>
-      <c r="BQ4" s="6"/>
-      <c r="BR4" s="6"/>
-      <c r="BS4" s="6"/>
-      <c r="BT4" s="6"/>
-      <c r="BU4" s="6"/>
-      <c r="BV4" s="6"/>
-      <c r="BW4" s="6"/>
-      <c r="BX4" s="6"/>
-      <c r="BY4" s="6"/>
+      <c r="A4" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AN4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AO4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AQ4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AR4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AS4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AU4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AV4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AW4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AX4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AY4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AZ4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BA4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BB4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BC4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BD4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BE4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BF4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BG4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BH4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BI4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BJ4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BK4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BL4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BM4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BN4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BO4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BP4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BQ4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BR4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BS4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BT4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BU4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BV4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BW4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BX4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BY4" s="6" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="5" spans="1:77" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="I5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="N5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="T5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP5" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="AQ5" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="AR5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AX5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY5" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="AZ5" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="BA5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH5" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="BI5" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="BJ5" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="BK5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BN5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS5" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="BT5" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="P5" s="6" t="s">
+      <c r="BU5" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="BV5" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="BW5" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="S5" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="U5" s="6" t="s">
+      <c r="BX5" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="BY5" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA5" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB5" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC5" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF5" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG5" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH5" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI5" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AM5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AO5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP5" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AR5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AU5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AV5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AW5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AX5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AY5" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AZ5" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="BA5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="BB5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="BC5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="BD5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="BE5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="BF5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="BG5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="BH5" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="BI5" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="BJ5" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="BK5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="BL5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="BN5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="BO5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="BP5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="BQ5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="BR5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="BS5" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BT5" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BU5" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BV5" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BW5" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX5" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="BY5" s="6" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:77" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF6" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="W6" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AA6" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC6" s="6" t="s">
+      <c r="AG6" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH6" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AI6" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="AE6" s="6" t="s">
+      <c r="AJ6" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="AF6" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG6" s="6" t="s">
+      <c r="AK6" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="AM6" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN6" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AO6" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP6" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AQ6" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR6" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="AS6" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="AT6" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="AU6" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="AH6" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AI6" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AJ6" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="AK6" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="AL6" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="AM6" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="AN6" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="AO6" s="6" t="s">
+      <c r="AV6" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="AP6" s="6" t="s">
+      <c r="AW6" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="AQ6" s="6" t="s">
+      <c r="AX6" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="AR6" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="AS6" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="AT6" s="10" t="s">
+      <c r="AY6" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="AU6" s="6" t="s">
+      <c r="AZ6" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="AV6" s="6" t="s">
+      <c r="BA6" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB6" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC6" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BD6" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BE6" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF6" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="BG6" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="AW6" s="6" t="s">
+      <c r="BH6" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="BI6" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="BJ6" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="BK6" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="BL6" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="BM6" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="AX6" s="6" t="s">
+      <c r="BN6" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="BO6" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="BP6" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="BQ6" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="BR6" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="BS6" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="AY6" s="6" t="s">
+      <c r="BT6" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="AZ6" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="BA6" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="BB6" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BC6" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="BD6" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="BE6" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="BF6" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="BG6" s="6" t="s">
+      <c r="BU6" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="BH6" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="BI6" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="BJ6" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="BK6" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL6" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM6" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="BN6" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="BO6" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="BP6" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="BQ6" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="BR6" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="BS6" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="BT6" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="BU6" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="BV6" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="BW6" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="BX6" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="BY6" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:77" ht="180.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>389</v>
+        <v>161</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>360</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -3616,7 +3655,7 @@
       <c r="V7" s="6">
         <v>800</v>
       </c>
-      <c r="W7" s="14">
+      <c r="W7" s="13">
         <v>1600</v>
       </c>
       <c r="X7" s="6">
@@ -3694,11 +3733,15 @@
       <c r="AV7" s="6">
         <v>255</v>
       </c>
-      <c r="AW7" s="6"/>
+      <c r="AW7" s="6">
+        <v>255</v>
+      </c>
       <c r="AX7" s="6">
         <v>1</v>
       </c>
-      <c r="AY7" s="6"/>
+      <c r="AY7" s="6">
+        <v>100</v>
+      </c>
       <c r="AZ7" s="6">
         <v>255</v>
       </c>
@@ -3723,9 +3766,15 @@
       <c r="BG7" s="6">
         <v>255</v>
       </c>
-      <c r="BH7" s="6"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="6"/>
+      <c r="BH7" s="6">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="6">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="6">
+        <v>138</v>
+      </c>
       <c r="BK7" s="6">
         <v>255</v>
       </c>
@@ -3772,1332 +3821,1658 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:77" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:77" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="D8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT8" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="W8" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AM8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AN8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AO8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AP8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AQ8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT8" s="6" t="s">
-        <v>166</v>
-      </c>
       <c r="AU8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AY8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AZ8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BA8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BB8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BC8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BD8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BE8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BF8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BG8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BH8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BI8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BJ8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BK8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BL8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BM8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BN8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BO8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BP8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BQ8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BR8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BS8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BT8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BU8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BV8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BW8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BX8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BY8" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:77" ht="116" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="W9" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Z9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AE9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AF9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AG9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AH9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AI9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AJ9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AK9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AL9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AM9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AN9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AP9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AQ9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AR9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AS9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AT9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AU9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AY9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AZ9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BA9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BB9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BC9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BD9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BE9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BF9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BG9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BH9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BI9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BJ9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BK9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BL9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BM9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BN9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BO9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BP9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BQ9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BR9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BS9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BT9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BU9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BV9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BW9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BX9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BY9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:77" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
+      <c r="A10" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="W10" s="13"/>
+      <c r="X10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="Z10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AA10" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB10" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
+      <c r="AE10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AF10" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="AG10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="AI10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AK10" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="AL10" s="6" t="s">
+        <v>420</v>
+      </c>
       <c r="AM10" s="6"/>
-      <c r="AN10" s="6"/>
-      <c r="AO10" s="6"/>
-      <c r="AP10" s="6"/>
-      <c r="AQ10" s="6"/>
-      <c r="AR10" s="6"/>
-      <c r="AS10" s="6"/>
-      <c r="AT10" s="6"/>
-      <c r="AU10" s="6"/>
-      <c r="AV10" s="6"/>
-      <c r="AW10" s="6"/>
-      <c r="AX10" s="6"/>
-      <c r="AY10" s="6"/>
-      <c r="AZ10" s="6"/>
-      <c r="BA10" s="6"/>
-      <c r="BB10" s="6"/>
-      <c r="BC10" s="6"/>
-      <c r="BD10" s="6"/>
-      <c r="BE10" s="6"/>
-      <c r="BF10" s="6"/>
-      <c r="BG10" s="6"/>
-      <c r="BH10" s="6"/>
-      <c r="BI10" s="6"/>
-      <c r="BJ10" s="6"/>
-      <c r="BK10" s="6"/>
-      <c r="BL10" s="6"/>
-      <c r="BM10" s="6"/>
-      <c r="BN10" s="6"/>
-      <c r="BO10" s="6"/>
-      <c r="BP10" s="6"/>
-      <c r="BQ10" s="6"/>
-      <c r="BR10" s="6"/>
-      <c r="BS10" s="6"/>
-      <c r="BT10" s="6"/>
-      <c r="BU10" s="6"/>
-      <c r="BV10" s="6"/>
-      <c r="BW10" s="6"/>
-      <c r="BX10" s="6"/>
-      <c r="BY10" s="6"/>
+      <c r="AN10" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO10" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="AP10" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ10" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="AR10" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="AS10" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="AT10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AU10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AV10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AW10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AX10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AY10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AZ10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BA10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BB10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BC10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BD10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BE10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BF10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BG10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BH10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BI10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BJ10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BK10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BL10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BM10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BN10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BO10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BP10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BQ10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BR10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BS10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BT10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BU10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BV10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BW10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BX10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BY10" s="6" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="11" spans="1:77" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="D11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="I11" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="L11" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="W11" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z11" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA11" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB11" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE11" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="L11" s="6" t="s">
+      <c r="AF11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ11" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN11" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO11" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ11" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR11" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS11" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AU11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AX11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AY11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AZ11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="BA11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="BB11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="BC11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="BD11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="BE11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="BF11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="BG11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="BH11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="BI11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="BJ11" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="BK11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BL11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BM11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BO11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BP11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BQ11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BR11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BS11" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="U11" s="6" t="s">
+      <c r="BT11" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="V11" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="W11" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y11" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z11" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA11" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB11" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC11" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD11" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="AE11" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF11" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG11" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH11" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI11" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ11" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK11" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="AL11" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="AM11" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="AN11" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO11" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP11" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ11" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AR11" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AS11" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AT11" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="AU11" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV11" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="AW11" s="7"/>
-      <c r="AX11" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="AY11" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="AZ11" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="BA11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="BB11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="BC11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="BD11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="BE11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="BF11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="BG11" s="7" t="s">
+      <c r="BU11" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="BH11" s="7"/>
-      <c r="BI11" s="7"/>
-      <c r="BJ11" s="7"/>
-      <c r="BK11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="BL11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="BM11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="BN11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="BO11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="BP11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="BQ11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="BR11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="BS11" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="BT11" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="BU11" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="BV11" s="6"/>
-      <c r="BW11" s="6"/>
-      <c r="BX11" s="6"/>
-      <c r="BY11" s="6"/>
+      <c r="BV11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="BW11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="BX11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="BY11" s="7" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="12" spans="1:77" ht="363.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>284</v>
+        <v>401</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>284</v>
+        <v>401</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>284</v>
+        <v>401</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>284</v>
+        <v>401</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>284</v>
+        <v>401</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>284</v>
+        <v>401</v>
       </c>
       <c r="H12" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="L12" s="6" t="s">
-        <v>285</v>
+        <v>400</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>284</v>
+        <v>401</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>284</v>
+        <v>401</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>284</v>
+        <v>401</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="T12" s="6"/>
       <c r="U12" s="6" t="s">
-        <v>288</v>
+        <v>399</v>
       </c>
       <c r="V12" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="W12" s="14" t="s">
-        <v>284</v>
+        <v>401</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>401</v>
       </c>
       <c r="X12" s="6" t="s">
-        <v>289</v>
+        <v>367</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="Z12" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
+        <v>282</v>
+      </c>
+      <c r="AA12" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="AB12" s="6" t="s">
+        <v>402</v>
+      </c>
       <c r="AC12" s="6" t="s">
-        <v>284</v>
+        <v>401</v>
       </c>
       <c r="AD12" s="6"/>
       <c r="AE12" s="6" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AF12" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AG12" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AH12" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AI12" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AJ12" s="6" t="s">
-        <v>292</v>
+        <v>366</v>
       </c>
       <c r="AK12" s="6"/>
       <c r="AL12" s="6"/>
       <c r="AM12" s="6"/>
       <c r="AN12" s="6" t="s">
-        <v>293</v>
+        <v>403</v>
       </c>
       <c r="AO12" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="AP12" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AQ12" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="AR12" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS12" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT12" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU12" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="AV12" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="AW12" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="AX12" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="AY12" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="AZ12" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="BA12" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="BB12" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="BC12" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="BD12" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="BE12" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="BF12" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="BG12" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="BH12" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="BI12" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="BJ12" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="BK12" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="BL12" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="BM12" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="BN12" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO12" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="BP12" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="BQ12" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="BR12" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="BS12" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="BT12" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="BU12" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="BV12" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="BW12" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="BX12" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="BY12" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:77" ht="269.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="AP12" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="AQ12" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="AR12" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="AS12" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="AT12" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="AU12" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="AV12" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="AW12" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="AX12" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="AY12" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="AZ12" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="BA12" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="BB12" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="BC12" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD12" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="BE12" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="BF12" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="BG12" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="BH12" s="11"/>
-      <c r="BI12" s="11"/>
-      <c r="BJ12" s="11"/>
-      <c r="BK12" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="BL12" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="BM12" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="BN12" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="BO12" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="BP12" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="BQ12" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="BR12" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="BS12" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="BT12" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="BU12" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="BV12" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="BW12" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="BX12" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="BY12" s="11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>363</v>
+      </c>
       <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="6"/>
+      <c r="U13" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="W13" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA13" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>381</v>
+      </c>
       <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
+      <c r="AE13" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="AF13" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="AG13" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="AH13" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="AI13" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="AJ13" s="6" t="s">
+        <v>365</v>
+      </c>
       <c r="AK13" s="6"/>
       <c r="AL13" s="6"/>
       <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="6"/>
-      <c r="AT13" s="11"/>
-      <c r="AU13" s="11"/>
-      <c r="AV13" s="11"/>
-      <c r="AW13" s="11"/>
-      <c r="AX13" s="11"/>
-      <c r="AY13" s="11"/>
-      <c r="AZ13" s="11"/>
-      <c r="BA13" s="11"/>
-      <c r="BB13" s="11"/>
-      <c r="BC13" s="11"/>
-      <c r="BD13" s="11"/>
-      <c r="BE13" s="11"/>
-      <c r="BF13" s="11"/>
-      <c r="BG13" s="11"/>
-      <c r="BH13" s="11"/>
-      <c r="BI13" s="11"/>
-      <c r="BJ13" s="11"/>
-      <c r="BK13" s="11"/>
-      <c r="BL13" s="11"/>
-      <c r="BM13" s="11"/>
-      <c r="BN13" s="11"/>
-      <c r="BO13" s="11"/>
-      <c r="BP13" s="11"/>
-      <c r="BQ13" s="11"/>
-      <c r="BR13" s="11"/>
-      <c r="BS13" s="6"/>
-      <c r="BT13" s="6"/>
-      <c r="BU13" s="11"/>
-      <c r="BV13" s="11"/>
-      <c r="BW13" s="11"/>
-      <c r="BX13" s="11"/>
-      <c r="BY13" s="11"/>
+      <c r="AN13" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO13" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP13" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="AQ13" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AR13" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AS13" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AT13" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="AU13" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="AV13" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="AW13" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="AX13" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="AY13" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="AZ13" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="BA13" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="BB13" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="BC13" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="BD13" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="BE13" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="BF13" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="BG13" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="BH13" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="BI13" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="BJ13" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="BK13" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="BL13" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="BM13" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="BN13" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="BO13" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="BP13" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="BQ13" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="BR13" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="BS13" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="BT13" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="BU13" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="BV13" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="BW13" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="BX13" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="BY13" s="10" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="14" spans="1:77" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="D14" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="I14" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="K14" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>201</v>
-      </c>
       <c r="N14" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="T14" s="6"/>
       <c r="U14" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y14" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="V14" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="W14" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="X14" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y14" s="6" t="s">
-        <v>204</v>
-      </c>
       <c r="Z14" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
+        <v>202</v>
+      </c>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
       <c r="AC14" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AD14" s="6"/>
       <c r="AE14" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AF14" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG14" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AH14" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AI14" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AJ14" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AK14" s="6"/>
       <c r="AL14" s="6"/>
       <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
+      <c r="AN14" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="AO14" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AP14" s="6"/>
       <c r="AQ14" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AR14" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AS14" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT14" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU14" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV14" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW14" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AX14" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="AR14" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="AS14" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="AT14" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AU14" s="6" t="s">
+      <c r="AY14" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AZ14" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA14" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="AV14" s="6" t="s">
+      <c r="BB14" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="AW14" s="6"/>
-      <c r="AX14" s="6" t="s">
+      <c r="BC14" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="BD14" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="BE14" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="BF14" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="BG14" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="BH14" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="BI14" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="BJ14" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK14" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="AY14" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AZ14" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="BA14" s="6" t="s">
+      <c r="BL14" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="BM14" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="BB14" s="6" t="s">
+      <c r="BN14" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="BC14" s="6" t="s">
+      <c r="BO14" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="BD14" s="6" t="s">
+      <c r="BP14" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="BE14" s="6" t="s">
+      <c r="BQ14" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="BF14" s="6" t="s">
+      <c r="BR14" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="BG14" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="BH14" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="BI14" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="BJ14" s="6" t="s">
+      <c r="BS14" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="BT14" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="BU14" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="BV14" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="BW14" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="BX14" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="BY14" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:77" ht="125" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="BK14" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="BL14" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="BM14" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="BN14" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="BO14" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="BP14" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="BQ14" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="BR14" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="BS14" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="BT14" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="BU14" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="BV14" s="6"/>
-      <c r="BW14" s="6"/>
-      <c r="BX14" s="6"/>
-      <c r="BY14" s="6"/>
-    </row>
-    <row r="15" spans="1:77" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="D15" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="K15" s="6">
+        <v>2000</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="K15" s="6" t="s">
+      <c r="M15" s="6">
+        <v>2019</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>221</v>
-      </c>
       <c r="O15" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="T15" s="6"/>
       <c r="U15" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="W15" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>213</v>
       </c>
       <c r="X15" s="6">
         <v>2022</v>
@@ -5111,38 +5486,38 @@
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AD15" s="6"/>
       <c r="AE15" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AF15" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AG15" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AH15" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AI15" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AJ15" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AK15" s="6"/>
       <c r="AL15" s="6"/>
       <c r="AM15" s="6"/>
       <c r="AN15" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AO15" s="6">
         <v>2021</v>
       </c>
       <c r="AP15" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AQ15" s="6">
         <v>2023</v>
@@ -5164,13 +5539,13 @@
       </c>
       <c r="AW15" s="6"/>
       <c r="AX15" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AY15" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AZ15" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="BA15" s="6">
         <v>2020</v>
@@ -5194,13 +5569,13 @@
         <v>2020</v>
       </c>
       <c r="BH15" s="6" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="BI15" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="BJ15" s="10" t="s">
-        <v>362</v>
+        <v>344</v>
+      </c>
+      <c r="BJ15" s="6" t="s">
+        <v>396</v>
       </c>
       <c r="BK15" s="6">
         <v>2023</v>
@@ -5227,10 +5602,10 @@
         <v>2018</v>
       </c>
       <c r="BS15" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="BT15" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="BU15" s="6">
         <v>2023</v>
@@ -5248,643 +5623,677 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="16" spans="1:77" ht="261" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="B16" s="6"/>
+    <row r="16" spans="1:77" ht="174" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>426</v>
+      </c>
       <c r="C16" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="T16" s="6"/>
       <c r="U16" s="6" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="W16" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
+      </c>
+      <c r="W16" s="13" t="s">
+        <v>370</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y16" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="Z16" s="7" t="s">
+      <c r="Y16" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z16" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA16" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC16" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="AA16" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="AB16" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="AC16" s="6" t="s">
-        <v>365</v>
-      </c>
       <c r="AD16" s="6"/>
-      <c r="AE16" s="7" t="s">
-        <v>372</v>
+      <c r="AE16" s="6" t="s">
+        <v>370</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AK16" s="6"/>
       <c r="AL16" s="6"/>
       <c r="AM16" s="6"/>
       <c r="AN16" s="6" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AO16" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AP16" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="AQ16" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AR16" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AS16" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AT16" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AU16" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="AV16" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="AW16" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX16" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AY16" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AZ16" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="BA16" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="BB16" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="BC16" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="BD16" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="BE16" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="BF16" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="BG16" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="BH16" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="AP16" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="AQ16" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="AR16" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="AS16" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="AT16" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="AU16" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="AV16" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="AW16" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="AX16" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="AY16" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="AZ16" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="BA16" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="BB16" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="BC16" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="BD16" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="BE16" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="BF16" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="BG16" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="BH16" s="6" t="s">
-        <v>386</v>
-      </c>
       <c r="BI16" s="6" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="BJ16" s="6" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="BK16" s="6" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="BL16" s="6" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="BM16" s="6" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="BN16" s="6" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="BO16" s="6" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="BP16" s="6" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="BQ16" s="6" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="BR16" s="6" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="BS16" s="6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="BT16" s="6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="BU16" s="6" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="BV16" s="6" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="BW16" s="6" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="BX16" s="6" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="BY16" s="6" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+    <row r="17" spans="1:77" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>415</v>
+      </c>
       <c r="H17" s="6" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="T17" s="6"/>
       <c r="U17" s="6" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="W17" s="14"/>
+        <v>311</v>
+      </c>
+      <c r="W17" s="13" t="s">
+        <v>418</v>
+      </c>
       <c r="X17" s="6" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="Y17" s="6" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="Z17" s="6" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="AD17" s="6"/>
       <c r="AE17" s="6" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="AI17" s="6" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="AJ17" s="6" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="AK17" s="6"/>
       <c r="AL17" s="6"/>
       <c r="AM17" s="6"/>
       <c r="AN17" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="AO17" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="AP17" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="AQ17" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="AR17" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="AS17" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="AT17" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="AU17" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="AV17" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="AW17" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="AX17" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="AY17" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="AZ17" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="BA17" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="BB17" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="BC17" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="BD17" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="BE17" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="BF17" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="BG17" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="BH17" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="BI17" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="BJ17" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="BK17" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="BL17" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="AO17" s="6" t="s">
+      <c r="BM17" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="BN17" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="AP17" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="AQ17" s="6" t="s">
+      <c r="BO17" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="BP17" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="AR17" s="6" t="s">
+      <c r="BQ17" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="AS17" s="6" t="s">
+      <c r="BR17" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="BS17" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="BT17" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="AT17" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AU17" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="AV17" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="AW17" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="AX17" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="AY17" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="AZ17" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="BA17" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="BB17" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="BC17" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="BD17" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="BE17" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="BF17" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="BG17" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="BH17" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="BI17" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="BJ17" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="BK17" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="BL17" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="BM17" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="BN17" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="BO17" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="BP17" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="BQ17" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="BR17" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="BS17" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="BT17" s="6" t="s">
-        <v>360</v>
-      </c>
       <c r="BU17" s="6" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="BV17" s="6" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="BW17" s="6" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="BX17" s="6" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="BY17" s="6" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:77" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C18" s="9">
+        <v>226</v>
+      </c>
+      <c r="C18" s="8">
         <v>45442</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>45442</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>45444</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>45445</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>45446</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>45449</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>45449</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <v>45446</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <v>45449</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="8">
         <v>45449</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="8">
         <v>45449</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="8">
         <v>45449</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="8">
         <v>45449</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="8">
         <v>45443</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="8">
         <v>45443</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R18" s="8">
         <v>45443</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="8">
         <v>45449</v>
       </c>
       <c r="T18" s="6"/>
-      <c r="U18" s="9">
+      <c r="U18" s="8">
         <v>41796</v>
       </c>
-      <c r="V18" s="9">
+      <c r="V18" s="8">
         <v>45443</v>
       </c>
       <c r="W18" s="15">
         <v>45443</v>
       </c>
-      <c r="X18" s="9">
+      <c r="X18" s="8">
+        <v>45449</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>45449</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>45449</v>
+      </c>
+      <c r="AA18" s="8">
+        <v>45510</v>
+      </c>
+      <c r="AB18" s="8">
+        <v>45510</v>
+      </c>
+      <c r="AC18" s="8">
+        <v>45443</v>
+      </c>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="8">
         <v>41796</v>
       </c>
-      <c r="Y18" s="9">
-        <v>41796</v>
-      </c>
-      <c r="Z18" s="9">
-        <v>41796</v>
-      </c>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="9">
+      <c r="AF18" s="8">
         <v>45443</v>
       </c>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="9">
-        <v>41796</v>
-      </c>
-      <c r="AF18" s="9">
+      <c r="AG18" s="8">
         <v>45443</v>
       </c>
-      <c r="AG18" s="9">
+      <c r="AH18" s="8">
         <v>45443</v>
       </c>
-      <c r="AH18" s="9">
+      <c r="AI18" s="8">
         <v>45443</v>
       </c>
-      <c r="AI18" s="9">
-        <v>45443</v>
-      </c>
-      <c r="AJ18" s="9">
+      <c r="AJ18" s="8">
         <v>45449</v>
       </c>
       <c r="AK18" s="6"/>
       <c r="AL18" s="6"/>
       <c r="AM18" s="6"/>
-      <c r="AN18" s="9">
+      <c r="AN18" s="8">
         <v>45449</v>
       </c>
-      <c r="AO18" s="9">
+      <c r="AO18" s="8">
         <v>45449</v>
       </c>
-      <c r="AP18" s="9">
+      <c r="AP18" s="8">
         <v>45449</v>
       </c>
-      <c r="AQ18" s="9">
+      <c r="AQ18" s="8">
         <v>45449</v>
       </c>
-      <c r="AR18" s="9">
+      <c r="AR18" s="8">
         <v>45449</v>
       </c>
-      <c r="AS18" s="9">
+      <c r="AS18" s="8">
         <v>45449</v>
       </c>
-      <c r="AT18" s="9">
+      <c r="AT18" s="8">
         <v>45456</v>
       </c>
-      <c r="AU18" s="9">
+      <c r="AU18" s="8">
         <v>45456</v>
       </c>
-      <c r="AV18" s="9">
+      <c r="AV18" s="8">
         <v>45456</v>
       </c>
-      <c r="AW18" s="9"/>
-      <c r="AX18" s="9">
+      <c r="AW18" s="8">
         <v>45456</v>
       </c>
-      <c r="AY18" s="9">
+      <c r="AX18" s="8">
         <v>45456</v>
       </c>
-      <c r="AZ18" s="9">
+      <c r="AY18" s="8">
         <v>45456</v>
       </c>
-      <c r="BA18" s="9">
+      <c r="AZ18" s="8">
         <v>45456</v>
       </c>
-      <c r="BB18" s="9">
+      <c r="BA18" s="8">
         <v>45456</v>
       </c>
-      <c r="BC18" s="9">
+      <c r="BB18" s="8">
         <v>45456</v>
       </c>
-      <c r="BD18" s="9">
+      <c r="BC18" s="8">
         <v>45456</v>
       </c>
-      <c r="BE18" s="9">
+      <c r="BD18" s="8">
         <v>45456</v>
       </c>
-      <c r="BF18" s="9">
+      <c r="BE18" s="8">
         <v>45456</v>
       </c>
-      <c r="BG18" s="9">
+      <c r="BF18" s="8">
         <v>45456</v>
       </c>
-      <c r="BH18" s="9"/>
-      <c r="BI18" s="9"/>
-      <c r="BJ18" s="9"/>
-      <c r="BK18" s="9">
+      <c r="BG18" s="8">
         <v>45456</v>
       </c>
-      <c r="BL18" s="9">
+      <c r="BH18" s="8">
+        <v>45510</v>
+      </c>
+      <c r="BI18" s="8">
+        <v>45510</v>
+      </c>
+      <c r="BJ18" s="8">
+        <v>45510</v>
+      </c>
+      <c r="BK18" s="8">
         <v>45456</v>
       </c>
-      <c r="BM18" s="9">
+      <c r="BL18" s="8">
         <v>45456</v>
       </c>
-      <c r="BN18" s="9">
+      <c r="BM18" s="8">
         <v>45456</v>
       </c>
-      <c r="BO18" s="9">
+      <c r="BN18" s="8">
         <v>45456</v>
       </c>
-      <c r="BP18" s="9">
+      <c r="BO18" s="8">
         <v>45456</v>
       </c>
-      <c r="BQ18" s="9">
+      <c r="BP18" s="8">
         <v>45456</v>
       </c>
-      <c r="BR18" s="9">
+      <c r="BQ18" s="8">
         <v>45456</v>
       </c>
-      <c r="BS18" s="9">
+      <c r="BR18" s="8">
+        <v>45456</v>
+      </c>
+      <c r="BS18" s="8">
         <v>45449</v>
       </c>
-      <c r="BT18" s="9">
+      <c r="BT18" s="8">
         <v>45449</v>
       </c>
-      <c r="BU18" s="9">
+      <c r="BU18" s="8">
         <v>45456</v>
       </c>
-      <c r="BV18" s="6"/>
-      <c r="BW18" s="6"/>
-      <c r="BX18" s="6"/>
-      <c r="BY18" s="6"/>
+      <c r="BV18" s="8">
+        <v>45456</v>
+      </c>
+      <c r="BW18" s="8">
+        <v>45456</v>
+      </c>
+      <c r="BX18" s="8">
+        <v>45456</v>
+      </c>
+      <c r="BY18" s="8">
+        <v>45456</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AT11" r:id="rId1" xr:uid="{6148FBCB-AEDB-410E-8783-61DF965B3709}"/>
     <hyperlink ref="AU11" r:id="rId2" xr:uid="{334DA308-F558-4A20-A48C-9F46763163D5}"/>
@@ -5907,17 +6316,28 @@
     <hyperlink ref="BQ11" r:id="rId19" xr:uid="{5F7C64F7-405E-4862-AEDB-256BE7C1A901}"/>
     <hyperlink ref="BR11" r:id="rId20" xr:uid="{A8DD2442-64AE-4FF1-A495-EBE921DC721D}"/>
     <hyperlink ref="BK11" r:id="rId21" xr:uid="{27AD67C4-4616-418E-9F4F-79F5E1ECB987}"/>
-    <hyperlink ref="Y16" r:id="rId22" display="https://commission.europa.eu/legal-notice_en" xr:uid="{B211613C-5761-4B7F-9676-C6EC58DD23DE}"/>
-    <hyperlink ref="Z16" r:id="rId23" display="https://commission.europa.eu/legal-notice_en" xr:uid="{74A881BF-3557-4B9D-B9F6-1584409C2596}"/>
-    <hyperlink ref="AA16" r:id="rId24" xr:uid="{DD56E2D8-3B7D-45E4-8C2E-23F0CCEC73E3}"/>
-    <hyperlink ref="AB16" r:id="rId25" xr:uid="{6862BB3F-C6C6-484D-BDEE-FBDA69117FB0}"/>
-    <hyperlink ref="AE16" r:id="rId26" display="https://creativecommons.org/licenses/by/4.0/_x000a_" xr:uid="{626A6108-F5DA-477F-996B-CF7E263C0FA0}"/>
-    <hyperlink ref="AP16" r:id="rId27" xr:uid="{6B87952E-C01D-4A62-A42E-1E8B9E93D60A}"/>
-    <hyperlink ref="BD11" r:id="rId28" xr:uid="{05073F0A-1948-49A9-92C6-EC36CD9DB358}"/>
+    <hyperlink ref="BD11" r:id="rId22" xr:uid="{05073F0A-1948-49A9-92C6-EC36CD9DB358}"/>
+    <hyperlink ref="BJ11" r:id="rId23" xr:uid="{4F4B182E-63A4-42FE-8D49-9B3D28A5A49C}"/>
+    <hyperlink ref="BI11" r:id="rId24" location="!/dataset/sis-biodiversity-cmip5-global?tab=form" xr:uid="{718759FA-D6DA-4F02-9BAF-F30BB12422E5}"/>
+    <hyperlink ref="BH11" r:id="rId25" location="!/dataset/sis-biodiversity-cmip5-global?tab=form" xr:uid="{94BFDBFD-93AC-411F-BCF4-FAD60E3AE66E}"/>
+    <hyperlink ref="AW11" r:id="rId26" xr:uid="{0782C1AA-64C7-42A1-A9A7-8ADB2B9BB964}"/>
+    <hyperlink ref="BV11" r:id="rId27" display="https://www.globalforestwatch.org/map/?map=eyJkYXRhc2V0cyI6W3siZGF0YXNldCI6ImVtZXJnaW5nLWhvdC1zcG90cyIsIm9wYWNpdHkiOjEsInZpc2liaWxpdHkiOnRydWUsImxheWVycyI6WyJlbWVyZ2luZy1ob3Qtc3BvdHMtMjAyMCJdfSx7ImRhdGFzZXQiOiJwb2xpdGljYWwtYm91bmRhcmllcyIsImxheWVycyI6WyJkaXNwdXRlZC1wb2xpdGljYWwtYm91bmRhcmllcyIsInBvbGl0aWNhbC1ib3VuZGFyaWVzIl0sIm9wYWNpdHkiOjEsInZpc2liaWxpdHkiOnRydWV9XX0%3D&amp;mapMenu=eyJtZW51U2VjdGlvbiI6ImRhdGFzZXRzIiwiZGF0YXNldENhdGVnb3J5IjoiZm9yZXN0Q2hhbmdlIn0%3D&amp;menu=eyJkYXRhc2V0Q2F0ZWdvcnkiOiJmb3Jlc3RDaGFuZ2UiLCJtZW51U2VjdGlvbiI6ImRhdGFzZXRzIn0%3D&amp;modalMeta=gfw_emerging_hot_spots_v2023" xr:uid="{38588489-CA4C-4315-9EDD-978E5CCC4291}"/>
+    <hyperlink ref="BW11" r:id="rId28" display="https://www.globalforestwatch.org/map/?map=eyJkYXRhc2V0cyI6W3siZGF0YXNldCI6ImVtZXJnaW5nLWhvdC1zcG90cyIsIm9wYWNpdHkiOjEsInZpc2liaWxpdHkiOnRydWUsImxheWVycyI6WyJlbWVyZ2luZy1ob3Qtc3BvdHMtMjAyMCJdfSx7ImRhdGFzZXQiOiJwb2xpdGljYWwtYm91bmRhcmllcyIsImxheWVycyI6WyJkaXNwdXRlZC1wb2xpdGljYWwtYm91bmRhcmllcyIsInBvbGl0aWNhbC1ib3VuZGFyaWVzIl0sIm9wYWNpdHkiOjEsInZpc2liaWxpdHkiOnRydWV9XX0%3D&amp;mapMenu=eyJtZW51U2VjdGlvbiI6ImRhdGFzZXRzIiwiZGF0YXNldENhdGVnb3J5IjoiZm9yZXN0Q2hhbmdlIn0%3D&amp;menu=eyJkYXRhc2V0Q2F0ZWdvcnkiOiJmb3Jlc3RDaGFuZ2UiLCJtZW51U2VjdGlvbiI6ImRhdGFzZXRzIn0%3D&amp;modalMeta=gfw_emerging_hot_spots_v2023" xr:uid="{E2A937BB-276D-47B4-9B65-B742ED8014AD}"/>
+    <hyperlink ref="BX11" r:id="rId29" display="https://www.globalforestwatch.org/map/?map=eyJkYXRhc2V0cyI6W3siZGF0YXNldCI6ImVtZXJnaW5nLWhvdC1zcG90cyIsIm9wYWNpdHkiOjEsInZpc2liaWxpdHkiOnRydWUsImxheWVycyI6WyJlbWVyZ2luZy1ob3Qtc3BvdHMtMjAyMCJdfSx7ImRhdGFzZXQiOiJwb2xpdGljYWwtYm91bmRhcmllcyIsImxheWVycyI6WyJkaXNwdXRlZC1wb2xpdGljYWwtYm91bmRhcmllcyIsInBvbGl0aWNhbC1ib3VuZGFyaWVzIl0sIm9wYWNpdHkiOjEsInZpc2liaWxpdHkiOnRydWV9XX0%3D&amp;mapMenu=eyJtZW51U2VjdGlvbiI6ImRhdGFzZXRzIiwiZGF0YXNldENhdGVnb3J5IjoiZm9yZXN0Q2hhbmdlIn0%3D&amp;menu=eyJkYXRhc2V0Q2F0ZWdvcnkiOiJmb3Jlc3RDaGFuZ2UiLCJtZW51U2VjdGlvbiI6ImRhdGFzZXRzIn0%3D&amp;modalMeta=gfw_emerging_hot_spots_v2023" xr:uid="{1DDB0D68-75E8-4585-AA01-680BDDD10A89}"/>
+    <hyperlink ref="BY11" r:id="rId30" display="https://www.globalforestwatch.org/map/?map=eyJkYXRhc2V0cyI6W3siZGF0YXNldCI6ImVtZXJnaW5nLWhvdC1zcG90cyIsIm9wYWNpdHkiOjEsInZpc2liaWxpdHkiOnRydWUsImxheWVycyI6WyJlbWVyZ2luZy1ob3Qtc3BvdHMtMjAyMCJdfSx7ImRhdGFzZXQiOiJwb2xpdGljYWwtYm91bmRhcmllcyIsImxheWVycyI6WyJkaXNwdXRlZC1wb2xpdGljYWwtYm91bmRhcmllcyIsInBvbGl0aWNhbC1ib3VuZGFyaWVzIl0sIm9wYWNpdHkiOjEsInZpc2liaWxpdHkiOnRydWV9XX0%3D&amp;mapMenu=eyJtZW51U2VjdGlvbiI6ImRhdGFzZXRzIiwiZGF0YXNldENhdGVnb3J5IjoiZm9yZXN0Q2hhbmdlIn0%3D&amp;menu=eyJkYXRhc2V0Q2F0ZWdvcnkiOiJmb3Jlc3RDaGFuZ2UiLCJtZW51U2VjdGlvbiI6ImRhdGFzZXRzIn0%3D&amp;modalMeta=gfw_emerging_hot_spots_v2023" xr:uid="{558F4314-D8F2-4BF8-A95A-206C409E1637}"/>
+    <hyperlink ref="Y16" r:id="rId31" display="https://commission.europa.eu/legal-notice_en" xr:uid="{27B53C2A-D0EA-4D65-A6A7-299E80DE2981}"/>
+    <hyperlink ref="Z16" r:id="rId32" display="https://commission.europa.eu/legal-notice_en" xr:uid="{0D81AF04-98E2-4C55-B3CD-7A3032CDDE21}"/>
+    <hyperlink ref="AA16" r:id="rId33" display="https://cds.climate.copernicus.eu/api/v2/terms/static/licence-to-use-copernicus-products.pdf" xr:uid="{10FA943B-E8C6-4361-9EB6-FC8A8B759F18}"/>
+    <hyperlink ref="AB16" r:id="rId34" display="https://cds.climate.copernicus.eu/api/v2/terms/static/licence-to-use-copernicus-products.pdf" xr:uid="{41BE3F01-74A5-4854-9CA8-C296881CFE48}"/>
+    <hyperlink ref="AJ16" r:id="rId35" display="https://www.worldwildlife.org/publications/global-lakes-and-wetlands-database-lakes-and-wetlands-grid-level-3" xr:uid="{7655FB39-78ED-4E4F-9F79-5EEDD7920486}"/>
+    <hyperlink ref="AN16" r:id="rId36" display="https://gadm.org/license.html" xr:uid="{A1CB0531-1467-40A8-A7C7-4376DFEFD94F}"/>
+    <hyperlink ref="AP16" r:id="rId37" display="https://www.protectedplanet.net/en/legal" xr:uid="{81255DD8-1A17-4C73-851E-10319BE551D1}"/>
+    <hyperlink ref="BH16" r:id="rId38" display="https://cds.climate.copernicus.eu/api/v2/terms/static/licence-to-use-copernicus-products.pdf" xr:uid="{621719F1-872E-4F99-8012-BDBFD96C69D9}"/>
+    <hyperlink ref="BI16" r:id="rId39" display="https://cds.climate.copernicus.eu/api/v2/terms/static/licence-to-use-copernicus-products.pdf" xr:uid="{FC246D4F-D051-4DB2-AE67-10E665E160EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId40"/>
   </tableParts>
 </worksheet>
 </file>